--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1917.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1917.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.975393004899565</v>
+        <v>1.334129810333252</v>
       </c>
       <c r="B1">
-        <v>3.247991253342998</v>
+        <v>1.418121814727783</v>
       </c>
       <c r="C1">
-        <v>2.159974860921652</v>
+        <v>4.25315523147583</v>
       </c>
       <c r="D1">
-        <v>1.886602654786582</v>
+        <v>3.105960607528687</v>
       </c>
       <c r="E1">
-        <v>1.802942631011747</v>
+        <v>1.013905167579651</v>
       </c>
     </row>
   </sheetData>
